--- a/assets/video/FORM_POA_N°3_PROBLEMAS Y CAUSAS.xlsx
+++ b/assets/video/FORM_POA_N°3_PROBLEMAS Y CAUSAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unidad_E\CAJA NACIONAL DE SALUD\POA_27_07\POA 2020_26_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SIIPLAS2021\siiplas_2021\assets\video\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -140,12 +140,12 @@
     <definedName name="monto">#REF!</definedName>
     <definedName name="monto_idh">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>CAJA NACIONAL DE SALUD</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>CAUSAS DE LOS PROBLEMAS</t>
-  </si>
-  <si>
-    <t>¿CÚAL ES LA CAUSA MÁS DETERMINANTE? (x)</t>
   </si>
   <si>
     <t>ACCIONES CORRECTIVAS
@@ -188,24 +185,24 @@
     <t>APROBADO</t>
   </si>
   <si>
-    <t>ANÁLISIS DE PROBLEMAS Y CAUSAS  - POA 2020</t>
-  </si>
-  <si>
     <t>DIR. ADM. : ……………………………………………………..………………………</t>
   </si>
   <si>
     <t>UNI. EJEC.  : …………………………………………………….……………..……….</t>
   </si>
+  <si>
+    <t>ANÁLISIS DE PROBLEMAS Y CAUSAS  - POA 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -363,11 +360,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -565,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,39 +574,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -630,6 +598,33 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,41 +634,32 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -745,7 +731,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -785,7 +771,7 @@
       <xdr:rowOff>2242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>29765</xdr:rowOff>
@@ -795,7 +781,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +828,7 @@
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>886239</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>119555</xdr:rowOff>
@@ -852,7 +838,7 @@
         <xdr:cNvPr id="4" name="Conector recto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,13 +879,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>720587</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>6440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>512693</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
@@ -909,7 +895,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2672,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2690,403 +2676,380 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="14" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="1.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="13" width="2.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="30" t="s">
-        <v>14</v>
+      <c r="F4" s="16" t="s">
+        <v>12</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="30" t="s">
-        <v>15</v>
+      <c r="F5" s="16" t="s">
+        <v>13</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>13</v>
+    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="6" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
-    <row r="10" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+    <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
+    <row r="16" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
     </row>
-    <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="36" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="38"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
     </row>
-    <row r="18" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13" t="s">
+    <row r="19" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="18"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
     </row>
-    <row r="19" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13" t="s">
+    <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="18"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="36"/>
     </row>
-    <row r="20" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:O18"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B7:O7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="K9:O9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:P18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:P20"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:O12"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/assets/video/FORM_POA_N°3_PROBLEMAS Y CAUSAS.xlsx
+++ b/assets/video/FORM_POA_N°3_PROBLEMAS Y CAUSAS.xlsx
@@ -583,6 +583,42 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -624,42 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -731,7 +731,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +781,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,7 +838,7 @@
         <xdr:cNvPr id="4" name="Conector recto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -895,7 +895,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K13" sqref="K13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2671,8 +2671,8 @@
     <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="5" customWidth="1"/>
@@ -2680,7 +2680,8 @@
     <col min="12" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.5703125" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2703,40 +2704,40 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
@@ -2747,22 +2748,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
     </row>
     <row r="8" spans="1:15" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
@@ -2773,109 +2774,109 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2884,152 +2885,146 @@
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="36"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:O19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:O20"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:O17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:O18"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:O12"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:K5"/>
@@ -3041,15 +3036,21 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:O10"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:O19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:O20"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:O17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:O18"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
